--- a/demo/Http_TEST_CMD.xlsx
+++ b/demo/Http_TEST_CMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\user_zhangbin\2021\AutoTest\Code\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86722A6-E919-4C43-9CEB-5F7651091DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56D7F51-51DD-4841-B97D-6D50B69E2CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="870" windowWidth="27150" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,7 +314,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~01@VID 10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    <t>&lt;value&gt;~01@VID 10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10
+&lt;/value&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +719,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/demo/Http_TEST_CMD.xlsx
+++ b/demo/Http_TEST_CMD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\user_zhangbin\2021\AutoTest\Code\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56D7F51-51DD-4841-B97D-6D50B69E2CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A13661-C6FE-4C11-ABD4-3836DDF3F824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="870" windowWidth="27150" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Port" sheetId="2" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>rcvd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,34 @@
   <si>
     <t>&lt;value&gt;~01@VID 10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10
 &lt;/value&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.20.196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS-1616DN_EM_HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cmd": "video_info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"methed":"POST",
+	"url" : "/cgi-bin/ligline.cgi",
+	"headers":{
+		"'content-type": "application/json;charset=UTF-8",
+		"accept": "application/json, text/plain, */*"
+	},
+	"payload":"{\"cmd\":\"video_info\"}"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6BE10F-D734-4523-B194-D4F5DFBB3B22}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -706,6 +734,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,10 +752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -768,6 +804,26 @@
       </c>
       <c r="F2" s="6"/>
     </row>
+    <row r="3" spans="1:6" ht="126" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
